--- a/data/trans_dic/P1438_2023-Dificultad-trans_dic.xlsx
+++ b/data/trans_dic/P1438_2023-Dificultad-trans_dic.xlsx
@@ -567,10 +567,10 @@
         <v>0.08347787155815924</v>
       </c>
       <c r="D4" s="5" t="n">
-        <v>0.1346243217461194</v>
+        <v>0.1346243217461193</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>0.1119295245293752</v>
+        <v>0.1119295245293753</v>
       </c>
     </row>
     <row r="5">
@@ -581,13 +581,13 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.06113677684981118</v>
+        <v>0.06192140510673648</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.1116075796952268</v>
+        <v>0.1131936105691895</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.09632003285464102</v>
+        <v>0.09837084015188177</v>
       </c>
     </row>
     <row r="6">
@@ -598,13 +598,13 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.1097084923698637</v>
+        <v>0.1152390721446639</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.1565934737230615</v>
+        <v>0.1565977877191305</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.1286500073582364</v>
+        <v>0.1304690932683622</v>
       </c>
     </row>
     <row r="7">
@@ -619,13 +619,13 @@
         </is>
       </c>
       <c r="C7" s="5" t="n">
-        <v>0.05184594046426141</v>
+        <v>0.05184594046426142</v>
       </c>
       <c r="D7" s="5" t="n">
         <v>0.1006637516577515</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>0.07807824696377949</v>
+        <v>0.07807824696377948</v>
       </c>
     </row>
     <row r="8">
@@ -636,13 +636,13 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.04066690322575484</v>
+        <v>0.04039655757083174</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.08723580526878806</v>
+        <v>0.08837645460461376</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.06851457083677602</v>
+        <v>0.06896229368842097</v>
       </c>
     </row>
     <row r="9">
@@ -653,13 +653,13 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.06602309359199444</v>
+        <v>0.06640381460685418</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.1149037173434682</v>
+        <v>0.1170095699152281</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.08782502321200515</v>
+        <v>0.08770478339270812</v>
       </c>
     </row>
     <row r="10">
@@ -677,10 +677,10 @@
         <v>0.0322757815413187</v>
       </c>
       <c r="D10" s="5" t="n">
-        <v>0.06116855711356821</v>
+        <v>0.06116855711356822</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>0.0467256974700648</v>
+        <v>0.04672569747006481</v>
       </c>
     </row>
     <row r="11">
@@ -691,13 +691,13 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.02425209323821507</v>
+        <v>0.02387748175879814</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.04909352092098937</v>
+        <v>0.05021665703821525</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.03951640519798962</v>
+        <v>0.03972710261780237</v>
       </c>
     </row>
     <row r="12">
@@ -708,13 +708,13 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.04407264248537802</v>
+        <v>0.04320804863181701</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.07272221138448628</v>
+        <v>0.07440438255170731</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.05494694177090067</v>
+        <v>0.05500623214616544</v>
       </c>
     </row>
     <row r="13">
@@ -732,7 +732,7 @@
         <v>0.03765502082360891</v>
       </c>
       <c r="D13" s="5" t="n">
-        <v>0.06179685843913513</v>
+        <v>0.06179685843913515</v>
       </c>
       <c r="E13" s="5" t="n">
         <v>0.04929774335650356</v>
@@ -746,13 +746,13 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.02637479736098096</v>
+        <v>0.02738487090431673</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.04992518568668817</v>
+        <v>0.04998491986249379</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.04098710614397454</v>
+        <v>0.04097508022522461</v>
       </c>
     </row>
     <row r="15">
@@ -763,13 +763,13 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.05105076306824574</v>
+        <v>0.0504961516803251</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.07472464101889617</v>
+        <v>0.0765325706875005</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.05855641337445291</v>
+        <v>0.05833811024677507</v>
       </c>
     </row>
     <row r="16">
@@ -790,7 +790,7 @@
         <v>0.08563728584677797</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>0.06665415691421034</v>
+        <v>0.06665415691421035</v>
       </c>
     </row>
     <row r="17">
@@ -801,13 +801,13 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.03979285596571795</v>
+        <v>0.04008472461299992</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.07912597366638562</v>
+        <v>0.07814923817957968</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.06154604758574724</v>
+        <v>0.0618402433619535</v>
       </c>
     </row>
     <row r="18">
@@ -818,13 +818,13 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.05333399718032823</v>
+        <v>0.05369392969872688</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.09269341696493415</v>
+        <v>0.09277074523216954</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.07172822428124476</v>
+        <v>0.0719991024021313</v>
       </c>
     </row>
     <row r="19">
@@ -966,13 +966,13 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>30377</v>
+        <v>30767</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>69522</v>
+        <v>70510</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>107858</v>
+        <v>110154</v>
       </c>
     </row>
     <row r="7">
@@ -983,13 +983,13 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>54511</v>
+        <v>57259</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>97544</v>
+        <v>97547</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>144060</v>
+        <v>146097</v>
       </c>
     </row>
     <row r="8">
@@ -1038,13 +1038,13 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>39046</v>
+        <v>38786</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>97282</v>
+        <v>98555</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>142188</v>
+        <v>143118</v>
       </c>
     </row>
     <row r="11">
@@ -1055,13 +1055,13 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>63391</v>
+        <v>63757</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>128137</v>
+        <v>130485</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>182264</v>
+        <v>182014</v>
       </c>
     </row>
     <row r="12">
@@ -1110,13 +1110,13 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>25379</v>
+        <v>24987</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>51400</v>
+        <v>52576</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>82726</v>
+        <v>83167</v>
       </c>
     </row>
     <row r="15">
@@ -1127,13 +1127,13 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>46121</v>
+        <v>45216</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>76140</v>
+        <v>77901</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>115030</v>
+        <v>115154</v>
       </c>
     </row>
     <row r="16">
@@ -1182,13 +1182,13 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>25717</v>
+        <v>26702</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>45345</v>
+        <v>45399</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>77191</v>
+        <v>77169</v>
       </c>
     </row>
     <row r="19">
@@ -1199,13 +1199,13 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>49777</v>
+        <v>49237</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>67869</v>
+        <v>69511</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>110280</v>
+        <v>109869</v>
       </c>
     </row>
     <row r="20">
@@ -1254,13 +1254,13 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>138421</v>
+        <v>139437</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>292237</v>
+        <v>288630</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>441400</v>
+        <v>443510</v>
       </c>
     </row>
     <row r="23">
@@ -1271,13 +1271,13 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>185525</v>
+        <v>186777</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>342346</v>
+        <v>342632</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>514425</v>
+        <v>516368</v>
       </c>
     </row>
     <row r="24">
